--- a/ofertas_corrigidas.xlsx
+++ b/ofertas_corrigidas.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ID Produto</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Produto Corrigido</t>
+          <t>PRODUTO</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Preço Promoção</t>
+          <t>PROMOÇÃO</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.99</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="4">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12.99</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="14">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.99</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="15">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.99</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="22">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="38">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="39">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="40">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="41">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="42">
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="43">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="44">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="45">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.69</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="51">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>11.99</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="53">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2.19</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="56">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8.59</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9.99</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="61">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>9.99</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="62">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>14.49</v>
+        <v>14.99</v>
       </c>
     </row>
   </sheetData>

--- a/ofertas_corrigidas.xlsx
+++ b/ofertas_corrigidas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,1065 +463,1065 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO ARROZ BRILHANTE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105470</v>
+        <v>258938</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACEM BOVINO KG</t>
+          <t xml:space="preserve">ARROZ BRILHANTE PCT 5KG TIPO 1 BRANCO </t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.99</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO ARROZ RAMPINELLI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>152232</v>
+        <v>225003</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BUCHO BOVINO KG</t>
+          <t xml:space="preserve">ARROZ RAMPINELLI PCT 5KG TIPO 1 BRANCO </t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.99</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105458</v>
+        <v>213540</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CHAMBARI KG</t>
+          <t xml:space="preserve">CONDICIONADOR BIO EXTRATUS 1L RECECADOS TUTANO E CERAMIDAS </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>231292</v>
+        <v>173970</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MIOLO DO ACEM KG</t>
+          <t>CONDICIONADOR BIO EXTRATUS 1L ANTI QUEDAS JABORANDI</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>173342</v>
+        <v>272259</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MOCOTO BOVINO KG</t>
+          <t xml:space="preserve">CONDICIONADOR BIO EXTRATUS 1L FORÇA PIMENTA </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.99</v>
+        <v>69.98999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>105469</v>
+        <v>196851</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PALETA BOVINA KG</t>
+          <t xml:space="preserve">CONDICIONADOR BIO EXTRATUS 1L NEUTRO PROTEINAS DO LEITE </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105475</v>
+        <v>224859</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MUSCULO BOVINO KG</t>
+          <t xml:space="preserve">CONDICIONADOR BIO EXTRATUS 1L POS QUIMICA ABACATE E JOJOBA </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>258810</v>
+        <v>272258</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PANCETA SUINA KG</t>
+          <t>SHAMPOO BIO EXTRATUS 1L FORCA PIMENTA</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.99</v>
+        <v>69.98999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SEGUNDA - AÇOUGUE 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>106034</v>
+        <v>176209</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SUAN SUINA KG</t>
+          <t>SHAMPOO BIO EXTRATUS 1L ANTIQUEDA JABORANDI</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>105842</v>
+        <v>200141</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ASA DE FRANGO KG</t>
+          <t xml:space="preserve">SHAMPOO BIO EXTRATUS 1L NEUTRO PEROLADO </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.39</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>227503</v>
+        <v>224856</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BATATA SADIA PALITO PRE-FRITA CONGELADA PCT 400G</t>
+          <t xml:space="preserve">SHAMPOO BIO EXTRATUS 1L POS QUIMICA ABACATE </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO BIO EXTRATUS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105838</v>
+        <v>213539</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COXA COM SOBRECOXA DE FRANGO KG</t>
+          <t xml:space="preserve">SHAMPOO BIO EXTRATUS 1L TUTANO CERAMIDAS </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.89</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>105840</v>
+        <v>206737</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COXINHA DA ASA DE FRANGO KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG BRILHO UMIDIFICADOR </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.39</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>306504</v>
+        <v>219054</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FIGADO DE FRANGO PERDIGAO KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG DEFINICAO MAXIMA LIBERADO </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>109597</v>
+        <v>211157</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FILE DE PEITO DE FRANGO KG</t>
+          <t>CREME DE PENTEAR SALON LINE  1L SUPER OLEOS</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>108786</v>
+        <v>224567</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FILEZINHO DE PEITO SADIA PCT 1KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG SOS KIDS CAIXOS DEFINIDOS </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108788</v>
+        <v>171341</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FRANGO SADIA A PASSARINHO TEMPERADO PCT 1KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG DEFINIÇÃO INTENSA </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>105853</v>
+        <v>171343</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FRANGO MARINGA CONGELADO KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG NUTRIÇÃO REPARADORA </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10.79</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>185934</v>
+        <v>167527</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GALINHA NOROESTE CONGELADA KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG BRILHO MAXIMO </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - EMBUTIDO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>228422</v>
+        <v>168527</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LINGUICA SUPER FRANGO GROSSA KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1K RECONSTRUÇÃO INTENSA </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>108774</v>
+        <v>262566</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MEIO DE DA ASA FRANGO SADIA TULIPA PCT 1KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG AZEITE DE OLIVA </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - AVE</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>108773</v>
+        <v>303583</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOELA DE FRANGO SADIA  BDJ 1KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG CACHINHOS BRILHANTES </t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - EMBUTIDO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>105770</v>
+        <v>303582</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MORTADELA PERDIGÃO DE FRANGO KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG DEFINIÇÃO ULTRA VOLUME </t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA - LACTEOS</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>302944</v>
+        <v>274185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>REQUEIJAO DE FRUTAP MISTURA DE AMIDO 175G</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG DEFINICAO NATURAL </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - EMBUTIDO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>286228</v>
+        <v>313924</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SALSICHA BOUA KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG CACHOS KIDS </t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11.19</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - EMPANADO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>138538</v>
+        <v>295312</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TEKITOS SEARA FRANGO 300G</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG DEFINIÇÃO EXTRAORDINARIA </t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8.19</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SEGUNDA - DAS AVES 07/04/2025</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - EMPANADO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>127328</v>
+        <v>269629</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TEKITOS SEARA QUEIJO OREGANO 300G</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG DEFINICAO ANTIFRIZZ </t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.19</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>298239</v>
+        <v>316174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AÇUCAR ECOÇUCAR CRISTAL  2KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG DEFINICAO NUTRITIVA </t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.59</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>269680</v>
+        <v>167528</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ARROZ DONA VAVA BRANCO TIPO 1 PCT 5KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG HIDRATACAO PROFUNDA </t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>136523</v>
+        <v>280872</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ARROZ KOBLENZ BRANCO TIPO 1 PCT 5KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG KIDS CACHINHOS </t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>100031</v>
+        <v>316170</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ARROZ REI  ARTHUR BRANCO TIPO 1 PCT 5KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG KIDS CHOCOLATE </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>199440</v>
+        <v>294213</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ARROZ SANTA FE BRANCO TIPO 1 PCT 5KG</t>
+          <t xml:space="preserve">CREME DE PENTEAR SALON LINE 1KG TRATAMENTO PROLONGADO </t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>286746</v>
+        <v>174473</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BISCOITO SULLPER  ROSQUINHA COCO 600G</t>
+          <t xml:space="preserve">CREME SALON LINE 550G TODECACHO SUPER DEFINIÇÃO </t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6.99</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>114037</v>
+        <v>316180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CAFE SANTA CLARA CLASSICO 250G</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 500G GELACREME TO DE CACHOS MISTURA </t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>155079</v>
+        <v>316179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CREME DE LEITE LEITBOM 200G</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 500G GELACREME TO DE CACHOS FIXAÇÃO ULTRA </t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.69</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>110330</v>
+        <v>300477</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CUSCUZ DE MILHO BONOMILHO 500G</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G FORTALECEDORA </t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>100423</v>
+        <v>300469</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LIMPOL COCO 500ML</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G TO DE CACHO NUTRITIVA </t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>100419</v>
+        <v>321780</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LIMPOL CRISTAL 500ML</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G CHOCOLATE </t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>220037</v>
+        <v>313925</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LIMPOL JABOTICABA 500ML</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 500G TO DE KIDS MELÃO </t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>204461</v>
+        <v>303581</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LIMPOL LAVANDA 500ML</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G MODELADORA KIDS MELANCIA </t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>100420</v>
+        <v>303580</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LIMPOL LIMAO 500ML</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G MODELADORA KIDS UVA </t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>100417</v>
+        <v>313926</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LIMPOL MACA 500ML</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G TO DE CACHO KIDS MARACUJA </t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>106661</v>
+        <v>286468</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LIMPOL NEUTRO 500ML</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G ESTILIZACAO </t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.19</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>273714</v>
+        <v>316166</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>EXTRATO DE TOMATE ELEFANTE POTE 300G</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G TO DE CACHO MELANCIA </t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7.99</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>100027</v>
+        <v>189049</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FARINHA DE TRIGO ORQUIDEA SEM FERMENTO 1KG</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G TO DE CACHO GELATINA </t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.99</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>167687</v>
+        <v>100789</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FEIJAO JOAOZINHO CARIOCA PREMIUM 1KG</t>
+          <t>KETCHUP QUERO 400G PICANTE</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.59</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>108434</v>
+        <v>100785</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LEITE CONDENSADO ITALAC SEMIDESNATADO 395G</t>
+          <t>KETCHUP QUERO 400G TRADICIONAL</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.99</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>231627</v>
+        <v>115724</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LEITE EM PO CAMPONESA INTEGRAL 1KG</t>
+          <t>MAIONESE QUERO SACHE 200G</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.99</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1576,113 +1576,113 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>142446</v>
+        <v>321107</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEITE ITALAC INTEGRAL 1L </t>
+          <t xml:space="preserve">MOLHO QUERO PRONTO SACHÊ 240G TRADICIONAL </t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.99</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>303196</v>
+        <v>256362</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MACARRAO GALO ESPAGUETE AMARELO 400G</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G TO DE CACHO BABOSA </t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.39</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO DISMELO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>101728</v>
+        <v>254215</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MAIONESE HELLMANNS TRADICIONAL 500G</t>
+          <t xml:space="preserve">GELATINA CAPILAR SALON LINE 550G TO DE CACHO RICINO </t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>12.49</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO HASKELL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>149121</v>
+        <v>293779</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MASSA PARA TAPIOCA AMAFIL 500G</t>
+          <t>KIT  SHAMPOO + CONDICIONADOR HASKELL 500ML MURUMURU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.69</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO HASKELL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>130920</v>
+        <v>231570</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MILHO VERDE FUGINI VAPOR LATA 200G</t>
+          <t>KIT  SHAMPOO + CONDICIONADOR HASKELL 500ML MANDIOCA</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.99</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1691,159 +1691,159 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>321107</v>
+        <v>206111</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MOLHO QUERO PRONTO TRADICIONAL SACHÊ 240G</t>
+          <t>CUP NOODLES NISSIN 69G CARNE DEFUMADA</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2.49</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>106680</v>
+        <v>206110</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>OLEO DE SOJA SOYA 900ML</t>
+          <t>CUP NOODLES NISSIN 69G COSTELA COM MOLHO DE CHURRASCO</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8.59</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>104410</v>
+        <v>206966</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>REFRIGERANTE GUARANA ANTARCTICA 2L</t>
+          <t>CUP NOODLES NISSIN 69G GALINHA CAIPIRA PICANTE</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8.789999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>104406</v>
+        <v>206455</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>REFRIGERANTE COCA COLA 2L</t>
+          <t>CUP NOODLES NISSIN 69G GALINHA CAIPIRA</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>215454</v>
+        <v>206109</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ OMO LAVAGEM PERFEITA CAIXA 1,6KG</t>
+          <t>CUP NOODLES NISSIN 69G QUEIJIO CHEDDAR</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>286199</v>
+        <v>148436</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SABÃO EM PO TIXAN YPE MACIEZ CAIXA 800G</t>
+          <t>CUP NOODLES NISSIN 69GR BOLONHESA</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10.19</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>261083</v>
+        <v>309236</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SABÃO EM PO TIXAN YPE PRIMAVERA CAIXA 800G</t>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 75G SUAVE GALINHA CAIPIRA </t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10.19</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>100706</v>
+        <v>312924</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SARDINHA COQUEIRO MOLHO DE TOMATE 125G</t>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 80G OMELETE COM PRESUNTO E QUEIJO </t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.99</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1875,21 +1875,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>100707</v>
+        <v>312925</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SARDINHA COQUEIRO OLEO 125G</t>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 80G PÃO NA CHAPA COM MANTEIGA </t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5.99</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SEGUNDA - OFERTA 07/04/25</t>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1898,15 +1898,8111 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>108410</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MACARRÃO INSTANTANEO NISSIM LAMEN 85G BACON</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>101774</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MACARRÃO INSTANTANEO NISSIM LAMEN 85G HOT CALABRESA</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>224050</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G CAMARAO COM ALHO </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>108460</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G CARNE </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>215081</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G HOT CARNE DESFIADA </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>101780</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G CARNE COM TOMATE </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>194705</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G COSTELA </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>111186</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G FRANGO ASSADO COM LIMÃO </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>101779</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G GALINHA </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>294326</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G SABOR GALINHA PICANTE </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>101778</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MACARRÃO INSTANTANEO NISSIM LAMEN 85G GALINHA CAIPIRA</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>101776</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G LEGUMES </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>101775</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G HOT MEXICANO </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>113723</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G PICANHA </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>321318</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CUP NOODLES NISSIN 68G QUEIJO NACHO</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>210277</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CUP NOODLES NISSIN 72G FRANGO TERIYAKI</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>101772</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 88G CREMOSO FRANGO </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>317541</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G CARNE </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>225446</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 75G CANJA DE GALINHA </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>119768</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G TURMA DA MONICA SUAVE CARNE </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>101786</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G TURMA DA MONICA SUAVE GALINHA </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>101785</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G TURMA DA MONICA SUAVE TOMATE </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>230170</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO NISSIM LAMEN 85G TURMA DO CHICO BENTO CALDO DE FEIJÃO </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>232948</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G GRAVIOLA </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>232947</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G LARANJA DOCE </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>232945</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>REFRESCO EM PÓ MID 20G LIMONADA SUIÇA</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>232950</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G ABACAXI </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>232952</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G CAJU </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>232949</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G GOIABA </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>232412</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G GROSELHA </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>237682</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G GUARANA </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>232946</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G LIMÃO </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>290763</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G MANGA </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>232410</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G MARACUJA </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>232944</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G MORANGO </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>232951</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G UVA </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>125775</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 25G JABUTICABA </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>232411</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G LARANJA </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>232409</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G TANGERINA </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>106853</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SARDINHA GOMES COSTA TOMATE PICANTE 125G</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>100704</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G ERVAS </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>100705</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G TOMATE </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>100695</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G DEFUMADA </t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>100694</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G LIMAO </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>100693</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G OLEO </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>270291</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PÓ MID 20G BAUNILHA COM LIMAO </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>133469</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G ALECRIM</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>108465</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G ARROZ</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>106833</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G FEIJAO/MARROM</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>108466</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G LEGUMES/AMARELO</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>133470</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G LIMAO</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>106812</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G NORDESTE</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>100880</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G AVES/VERDE</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>100884</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G CARNES/VERMELHO</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>100881</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TEMPERO EM PÓ SAZON SACHÊ 60G MASSAS /MOLHOS</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO LP GUIMARAES</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>100883</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEMPERO EM PÓ SAZON SACHÊ 60G SALADAS </t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO OCRIM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>134629</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FARINHA DE TRIGO MIRELLA 1KG SEM FERMENTO </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO PAO DA HORA</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>268136</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PAO DE QUEIJO VO LUIZA 800G CONGELADO</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>250013</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BISCOITO MARILAN 350G CRACKER ESPECIAL </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>108412</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO SANDELLA 85G CARNE </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>101787</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO SANDELLA 85G CALABRESA PICANTE </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>101791</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MACARRÃO INSTANTANEO SANDELLA 85G CARNE TOMATE</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>101789</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO SANDELLA 85G GALINHA </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>101788</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO SANDELLA 85G GALINHA CAIPIRA APIMENTADA </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>220429</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO SANDELLA 85G CARNE COM PIMENTA </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>237471</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRÃO INSTANTANEO SANDELLA 74G INFANTIL FRANGO </t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>112293</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G ABACAXI </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>109950</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G CASEIRO LARANJA </t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>101732</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G GOIABA </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>101736</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G LARANJA </t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>112327</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G LIMAO </t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>101734</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G MANGA </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>101733</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G MARACUJA </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>108277</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G MORANGO </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>108276</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G SALADA FRUTA </t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO RB</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>101731</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRESCO EM PO REFRESKANT 20G UVA </t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>112174</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ALCOOL START 70º 1L</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>285689</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMACIANTE DE ROUPAS TUFF 1L CONCENTRADO LE JARDIM </t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>285690</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMACIANTE DE ROUPAS TUFF 1L CONCENTRADO POEME </t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>285691</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>AMACIANTE DE ROUPAS TUFF 1L CONCENTRADO ROSE PINK</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>285692</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMACIANTE DE ROUPAS TUFF 1L CONCENTRADO SPLENDOR </t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>186012</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>DESINFETANTE AZULIM 1L LAVANDA</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>107673</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>DESINFETANTE AZULIM START 1L WAVE</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>112179</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>DESINFETANTE AZULIM START 1L ABSOLUTE</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>106547</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>DESINFETANTE AZULIM START 1L ERVA DOCE</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>106548</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>DESINFETANTE AZULIM START 1L FLORATA</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>106546</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>DESINFETANTE AZULIM START 1L MARINER</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>106545</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>DESINFETANTE AZULIM START 1L NEON</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>123791</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>DESINFETANTE START VOREL 2L CITRUS</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>123792</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>DESINFETANTE START VOREL 2L EUCALIPTO</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>123793</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>DESINFETANTE START VOREL 2L FLORAL</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>123795</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>DESINFETANTE START VOREL 2L JASMIM</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>123796</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>DESINFETANTE START VOREL 2L LAVANDA</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>123797</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>DESINFETANTE START VOREL 2L PINHO</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>195115</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>LAVA ROUPAS LIQUIDO TUFF 3L CONCENTRADO</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>118939</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIMPA ALUMINIO POLYLAR 500ML LIMAO </t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇÃO START QUIMICA</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>118940</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIMPA ALUMINIO POLYLAR 500ML MACA </t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>152232</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>BUCHO BOVINO KG</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>105458</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>CHAMBARI KG</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>105451</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>CONTRA FILE KG</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>105471</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>COSTELA BOVINA KG</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>105435</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>COXAO MOLE KG</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>105474</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>FRALDINHA BOVINA KG</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>107260</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>MAÇÃ DO PEITO KG</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>261519</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PICANHA BOVINA  KG FATIADA</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>106249</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>PICANHA QUALITY BEEF KG</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>305039</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>LINGUICA BOVINA  CASEIRA KG</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - SUINO</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>106053</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>BISTECA SUINA CARRE KG</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - SUINO</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>105062</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>BISTECA SUINA DO PERNIL KG</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - AÇOUGUE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - SUINO</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>105433</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>COSTELA SUINA KG</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>110086</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COPO DESCARTAVEL TERMOPOT 180ML CRISTAL </t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>114556</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GARRAFAO TERMICO TERMOLAR 5L AZUL </t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>113301</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GARRAFAO TERMICO TERMOLAR 5L VERMELHO </t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>171272</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>PANELA DE PRESSAO PANELUX 4,5L</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>302448</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>PAPEL ALUMINIO VABENE 45CM X 4M</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>121635</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>PAPEL TOALHA SCALA 2UN</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>229361</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRATO DESCARTAVEL TOTAL PLASTICO 15CM RASO </t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BAZAR</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>#08 BAZAR</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>311249</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SACO PLASTICO VABENE 5L FREEZER E MICRO </t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>301843</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>CAMPARI 998ML</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>76.98999999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>286589</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>BEBIDA ENGOV AFTER 250ML BERRY VIBES</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>287184</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>BEBIDA ENGOV AFTER 250ML CITRUS</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>287177</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>BEBIDA ENGOV AFTER 250ML TANGERINA</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>102085</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>CACHACA 51 965ML</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>215568</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>CACHACA BANANAZINHA 900ML</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>293188</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CACHACA 51 600ML RAIZ </t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - CERVEJA</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>287369</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CERVEJA ANTARCTICA 15 X 269ML ORIGINAL </t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - CERVEJA</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>170451</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>CERVEJA BRAHMA CHOPP 15 X 269ML</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - CERVEJA</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>247800</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>CERVEJA BUDWEISER 330ML LARGER LONG NECK</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - CERVEJA</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>239446</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CERVEJA AMSTEL 12 X 269ML LAGER </t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - CERVEJA</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>242930</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>CERVEJA HEINEKEN 330ML</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - CERVEJA</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>107376</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CERVEJA SKOL 15 X 269ML PILSEN </t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - FERMENTADOS</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>295198</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHOPP DE VINHO STEMPEL 600ML RED </t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>244424</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L ENERGY DRINK MELANCIA </t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>253877</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L ENERGY DRINK COCO E ACAI </t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>253878</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L  ENERGY DRINK </t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>253880</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L  MAÇÃ VERDE </t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>244426</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L FRUTAS TROPICAIS </t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>305261</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>ENERGETICO BALY  2L ABACAXI COM HORTELA</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>320467</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L CITRUS </t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>302661</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L MORANGO E PESSEGO </t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>302660</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO BALY 2L TANGERINA </t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>273004</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGETICO ENGOV UP 269ML MELANCIA </t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>273000</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ENERGETICO ENGOV UP 269ML MORANGO E KIWI</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>273005</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ENERGETICO ENGOV UP 269ML ORIGINAL</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>102287</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>ENERGETICO EXTRA POWER 270ML</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>219274</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>GIN GORDONS 750ML</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>89.98999999999999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>206930</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>GIN TANQUERAY LONDON 750ML</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>129.99</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>104404</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRIGERANTE FANTA 2L LARANJA </t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>104410</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>REFRIGERANTE GUARANA ANTARCTICA 2L</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>104405</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REFRIGERANTE SUKITA 2L LARANJA </t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>104406</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>REFRIGERANTE COCA COLA 2L</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - FERMENTADOS</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>155994</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINHO GALIOTTO 1L TINTO SECO </t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - FERMENTADOS</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>139964</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINHO PERGOLA 1L  TINTO SUAVE </t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>110373</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WHISKY BLACK &amp; WHITE 1L 8 ANOS </t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>85.98999999999999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - BEBIDAS</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>#05 BEBIDA - DESTILADOS</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>102077</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WHISKY OLD PARR 1L 12 ANOS </t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>179.99</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>298239</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>AÇUCAR ECOÇUCAR CRISTAL  2KG</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>325990</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARROZ BRANCO FLORA PCT 5KG TIPO 1 BRANCO </t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>100038</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARROZ BREJEIRO PCT 5KG TIPO 1 BRANCO </t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>100020</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARROZ REALENGO PCT 5KG TIPO 1 BRANCO </t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>167686</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>FEIJAO KI SABOR 1KG CARIOCA</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>163918</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>FEIJAO KICALDO 1KG CARIOCA</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>292124</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>FEIJAO TIO CHICO 1KG CARIOCA</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - CEREAIS</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>106680</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>OLEO DE SOJA SOYA 900ML</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>110330</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>CUSCUZ DE MILHO BONOMILHO 500G</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>112978</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>CUSCUZ DE MILHO SINHA 500G</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>128930</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>FARINHA DE MANDIOCA AMAFIL 1KG AMARELA OURO</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>128898</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FARINHA DE MILHO AMAFIL 500G BIJU </t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>107361</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FARINHA DE TRIGO DONA BENTA 1KG COM FERMENTO </t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>111571</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>FLOCAO DE ARROZ BONOARROZ 500G</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>100120</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>FLOCAO DE MILHO BONOMILHO 500G</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>149121</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>MASSA PARA TAPIOCA AMAFIL 500G</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - FARINÁCEOS</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>128920</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POLVILHO MATUTO 1KG DOCE </t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>#09 HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>105001</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>BETERRABA KG</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>#09 HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>104919</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>CEBOLA NACIONAL KG</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>#09 HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>104862</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>CENOURA KG</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>#09 HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>104931</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>LARANJA KG</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>#09 HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>104944</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>MACA NACIONAL KG</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>#09 HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>104992</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>REPOLHO VERDE KG</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>#09 HORTIFRUTI</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>104961</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>TOMATE CARMEM KG</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>100426</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>AGUA SANITARIA QBOA 1L</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>100431</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>AGUA SANITARIA QBOA 2L</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>213003</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMACIANTE DE ROUPAS COMFORT 1,5L INTENSO CUIDADO ESSENCIAL </t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>247502</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESINFETANTE +FAMILIA 5L LAVANDA </t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>207584</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>207586</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>207582</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>256724</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>207588</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>100391</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO YPE 500ML CAPIM LIMAO</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>100394</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO YPE 500ML CLEAR</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>100392</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO YPE 500ML CLEAR CARE</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>100402</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO YPE 500ML COCO</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>100403</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO YPE 500ML LIMAO</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>100393</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO YPE 500ML MACA</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>100390</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIQUIDO YPE 500ML NEUTRO</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>139059</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>LAVA LOUÇAS LIQUIDO YPE 500ML LIMAO</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>156422</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>LIMPADOR VEJA MULTI USO PROMOCIONAL 500ML</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>257710</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABÃO EM BARRA YPE 900G NEUTRO </t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>289451</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABAO EM PO +CASA SACHE 5KG MULTIACAO </t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>286231</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>SABAO EM PO BRILHANTE CAIXA 1,6KG PROMOCIONAL</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>248450</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABAO EM PO OMO 1,6KG LAVAGEM PERFEITA </t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>261867</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABAO EM PO BRILHANTE CAIXA 1,6KG LIMPEZA TOTAL PROMOCIONAL </t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>286199</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABÃO EM PO TIXAN YPE CAIXA 800G MACIEZ </t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>261083</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>SABÃO EM PO TIXAN YPE CAIXA 800G PRIMAVERA</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - LIMPEZA PESADA</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>100373</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>SODA CAUSTICA SOL 1KG</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>117533</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ACHOCOLATADO EM PÓ 3 CORACOES SACHÊ 400G CHOCOLATTO </t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>255232</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>ACHOCOLATADO EM PÓ TODDY 750G</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>261728</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>BISCOITO FORTALEZA 350G CREAM CRACKER</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>286197</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>BISCOITO MABEL 600G ROSQUINHA COCO</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>239682</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BOMBOM GAROTO CAIXA 250G SORTIDO </t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>101137</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAFE MARATA 250G TRADICIONAL </t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>101136</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAFE PILAO 250G TRADICIONAL </t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>252992</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>CEREAL KELLOGS 240G SUCRILHOS ORIGINAL</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>101066</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>CREME DE LEITE ITALAC 200G</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>114256</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DOCE DE PESSEGO GB 450G METADES </t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>273006</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>FARINHA LACTEA NESTLE 160G ORIGINAL</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>108434</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE CONDENSADO ITALAC 395G SEMIDESNATADO </t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>142446</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE ITALAC 1L  INTEGRAL </t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>101113</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE PIRACANJUBA 1L INTEGRAL </t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>106922</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE EM PO CCGL 1KG INTEGRAL </t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>307145</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE EM PO NINHO 380G INTEGRAL INSTANTANEL </t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>101130</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MISTURA PARA BOLOS DONA BENTA 450G CHOCOLATE </t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>182238</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>MISTURA LACTEA TRIANGULO 395G</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA DOCE</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>239315</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BISCOITO RANCHEIRO 600G ROSQUINHA COCO </t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>132657</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AZEITE DE OLIVA GALLO VIDRO 500ML EXTRA VIRGEM </t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>289034</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AZEITONAS RIVOLI DOYPACK 200G VERDES </t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>123202</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AZEITONAS LA VIOLETERA 1,8KG VERDES FATIADAS </t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>79.98999999999999</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>242311</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CATCHUP ARISCO 370G TRADICIONAL </t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>100780</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>EXTRATO DE TOMATE OLE COPO 190G</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>303196</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRAO GALO 400G ESPAGUETE AMARELO </t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>288968</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRAO SAFRA 500G PARAFUSO SEMOLA </t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>131884</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MACARRAO GALO 500G ESPAGUETE VERMELHO Nº8 </t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>101726</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>MAIONESE ARISCO 500G TRADICIONAL</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>101728</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAIONESE HELLMANNS 500G TRADICIONAL </t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>107640</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>MILHO VERDE QUERO LATA 170G</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>148235</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>MOLHO TOMATE VAL 300G TRADICIONAL</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
         <v>100876</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>TEMPERO ARISCO COMPLETO COM PIMENTA 1KG</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
+      <c r="D300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEMPERO ARISCO COMPLETO 1KG PIMENTA </t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>106830</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEMPERO MARIZA 1KG COMPLETO </t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - MERCEARIA SALGADA</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>106961</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINAGRE CASTELO 750ML ALCOOL </t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>101874</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TODDYNHO 200ML CHOCOLATE </t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - SUINO</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>298215</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BACON BONFRIGO PALETA KG </t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>306946</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BEBIDA LACTEA FRUTILAC 480G MORANGO </t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - AVE</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>119923</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>CORAÇÃO DE FRANGO AMERICANO 1KG</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - AVE</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>105838</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>COXA COM SOBRECOXA DE FRANGO KG</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - AVE</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>105840</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>COXINHA DA ASA DE FRANGO KG</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
         <v>14.99</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - AVE</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>225767</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>FRANGO BONASA CONGELADO KG</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>231849</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IOGURTE FLAMBOYANT 1,25KG MORANGO FAMILIA </t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>246974</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IOGURTE DANONE 1250G COCO </t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>246975</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IOGURTE DANONE 1250G MORANGO </t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>246976</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IOGURTE DANONE 1250G VITAMINA DE FRUTAS </t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>286549</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>LINGUICA BONFRIGO CALABRESA KG</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>129515</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>LINGUICA SEARA CALABRESA CURADA KG</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>189031</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>LINGUICA FRICO MISTA  KG</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>289127</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LINGUICA SADIA 215G MISTA FININHA DEFUMADA </t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>228422</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LINGUICA SUPER FRANGO  GROSSA KG </t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>117117</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>LINGUICA FRIMESA  TOSCANA SUINA KG</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>276943</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARGARINA DELICIA 1KG COM CREME DE LEITE </t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>309350</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>MASSA DE PASTEL JK 1KG</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>309331</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MASSA DE PASTEL JK 500G DISCAO </t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>309332</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MASSA DE PASTEL JK 500G ROLO </t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>319774</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MINI PASTEIS RODEIO 500G CONGELADOS CARNE </t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>319773</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MINI PASTEIS RODEIO 500G CONGELADOS FRANGO </t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>319775</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MINI PASTEIS RODEIO 500G CONGELADOS QUEIJO </t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>173405</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MORTADELA SEARA DEFUMADA KG  </t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>105765</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>MORTADELA PERDIGAO  MISTA KG</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMBUTIDO</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>111741</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRESUNTO SADIA COZIDO SEM CAPA GORDURA  KG </t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>252582</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>QUEIJO MUSSARELA THETIZ KG</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA - LACTEOS</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>155246</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>REQUEIJAO CANTO DE MINAS 200G CREMOSO TRADICIONAL</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMPANADO</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>138538</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEKITOS SEARA 300G FRANGO </t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERECIVEIS</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - EMPANADO</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>127328</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEKITOS SEARA 300G QUEIJO OREGANO </t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>109064</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABSORVENTE INTIMUS 8UN GEL NOTURNO SECA  COM ABAS </t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>135954</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABSORVENTE INTIMUS GEL 8UN NOTURNO SUAVE COM ABAS </t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>107928</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CREME DENTAL COLGATE 180G MPA </t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>213094</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G HIDR AGUA COCO </t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>312363</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G SALVA FIOS</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>170616</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>163614</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G POS QUIMICA OLEO DE ARGAN </t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>284786</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G CACHOS </t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>314034</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G LAVANDA </t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>165646</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G LISO PROLONGADO </t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>208281</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML MEN </t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>208304</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML PROTECT UNISSEX </t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>208280</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML WOMEN </t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>230503</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G CX CEDRO </t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>230504</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>DESODORANTE HERBISSIMO CREME 55G HIBISCO</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>225436</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MONANGE AEROSOL 150ML ANTI DETOX FRESH </t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>312369</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML ENERGY MEN </t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>312371</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML FEMININO FLOR LAVANDA </t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>312370</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML FEMININO HIDRATANTE </t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>312366</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML FEMININO HIDRATANTE PROTECT </t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>312367</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML FRUTAS VERMELHA </t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>117425</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G TALCO </t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>294752</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G TRADICIONAL </t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>182034</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>DESODORANTE DOVE AEROSOL ORIGINAL 150ML</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>117576</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G ANTIPERSPIRANTE </t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>109683</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G FRESH </t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>117258</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G SENSITIVE </t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>109593</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>DESODORANTE HERBISSIMO STICK CREME 45G NEUTRO</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>312368</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML POWER MEN </t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>298928</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML MEN SPORT </t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>298927</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML TEEN BOY </t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>298933</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML INVISIBLE CARE </t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>298932</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML WOMEN SPORT </t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>298931</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML UNISSEX SPORT </t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>298930</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML SEM PERFUME </t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>298929</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML TEEN GIRL </t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>313968</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO STICK CREME 45G SENSITIVE </t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>281777</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G NEUTRO </t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>281726</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO STICK CREME 45G LAVANDA </t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>309354</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO STICK CREME 45G VANILLA </t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>297811</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>DESODORANTE HERBISSIMO STICK CREME 45G TWIST</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>287599</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO CREME 55G ACTION </t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>314368</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE HERBISSIMO STICK CREME 45G BIO PROTECT </t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>292040</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MONANGE AEROSOL 150G ESPORTE </t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>141299</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MONANGE AEROSOL 150ML HIDRATAÇÃO INTENSA </t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>141297</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MONANGE AEROSOL 150ML FLOR LAVANDA </t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>230985</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MONANGE AEROSOL 150ML PROTECAO SECA </t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>202717</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MONANGE AEROSOL 150ML SENSÍVEL </t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>311881</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML FEMININO HIDRATAÇÃO INTENSA </t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>312365</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML FLOR DE ALGODAO WOMEN </t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>312364</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML IMPACT MEN </t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>304353</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENXAGUANTE BUCAL CEPACOL 500ML MENTA FUSION </t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>313958</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENXAGUANTE BUCAL CEPACOL 500ML MENTA ICE SEM ALCO </t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>276631</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENXAGUANTE BUCAL CEPACOL 500ML MENTA PROTECT + FLUOR </t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>313959</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENXAGUANTE BUCAL CEPACOL 500ML CITRUS FUSION </t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>276630</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENXAGUANTE BUCAL CEPACOL 500ML MENTA INTENSE </t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>315319</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENXAGUE BUCAL CEPACOL 500ML  MENTA SEM ALCOOL PROMOCIONAL </t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>277148</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>KIT SHAMPOO + CONDICONADOR NIELY GOLD  450ML DEFESA PROLONGADA</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>200175</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>KIT SHAMPOO + CONDICONADOR NIELY GOLD 500ML / 200ML COMPRIDOS E FORTES</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>110941</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIT SHAMPOO + CONDICONADOR NIELY GOLD 300ML / 200ML QUERATINA REPARAÇÃO </t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>214327</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIT SHAMPOO + CONDICONADOR NIELY GOLD 300ML / 200ML HIDRATANTE AGUA COCO </t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>110487</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIT SHAMPOO + CONDICONADOR NIELY GOLD 300ML / 500ML  LISO PROLONGADADO </t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>122533</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIT SHAMPOO + CONDICONADOR NIELY GOLD 300ML OLEO DE ARGAN </t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>308560</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIT SHAMPOO + CONDICONADOR NIELY GOLD 275ML / 175ML SALVA FIOS </t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>196735</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>KIT SHAMPOO + CONDICONADOR NIELY GOLD  430G COMPRIDOS + FORTES</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>255028</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G DETOX </t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>163627</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CREME DE TRATAMENTO CAPILAR NIELY GOLD 430G  NUTRICAO PODEROSA </t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>144261</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G NATURALS SEGREDO SEDUTOR </t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>107698</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G ALOE E OLIVA </t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>107699</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G COCO E ALGODAO </t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>157417</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G GELEIA REAL E PROTEÇÃO </t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>108866</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G LEITE E PETALAS ROSA </t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>108867</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G MANTEIGA CACAU E KARITE </t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>167507</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G OLEO NUTRITIVO </t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>108873</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G OLEO AMENDOAS E LANOLINA </t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>121641</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G OLEO ARGAN E OLEO COMPLETO </t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>190286</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G NATURALS JASMIM </t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>324239</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G ARGILA PRETA E EUCALIPTO </t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>301365</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G MELANCIA E LICHIA </t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>228933</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G SENSACAO PURIFICANTE </t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>306134</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SABONETE PALMOLIVE 150G TANGERINA E ALECRIM </t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>162945</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>KIT SHAMPOO + CONDICONADOR NIELY GOLD NUTRIÇÃO PODER 500ML</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ANIVERSARIO GIRO 25 ANOS - PERFUMARIA</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>#04 HIGIENE PESSOAL</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>117221</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>TALCO BARLA 140G</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>7.39</v>
       </c>
     </row>
   </sheetData>

--- a/ofertas_corrigidas.xlsx
+++ b/ofertas_corrigidas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,43 +463,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#06 AÇOUGUE - BOVINO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>207427</v>
+        <v>105470</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ABSORVENTE COTONBABY LADY  8UN SEM ABAS</t>
+          <t>ACEM BOVINO KG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.99</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#06 AÇOUGUE - BOVINO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>255232</v>
+        <v>105471</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACHOCOLATADO EM PÓ TODDY 750G</t>
+          <t>COSTELA BOVINA KG</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,185 +509,185 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+          <t>#06 AÇOUGUE - BOVINO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>298239</v>
+        <v>107260</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AÇUCAR ECOÇUCAR CRISTAL  2KG</t>
+          <t>MAÇÃ DO PEITO KG</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.69</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#06 AÇOUGUE - BOVINO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100431</v>
+        <v>105469</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AGUA SANITARIA QBOA 2L</t>
+          <t>PALETA BOVINA KG</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.69</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#06 AÇOUGUE - SUINO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112174</v>
+        <v>106053</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ALCOOL START 70º 1L</t>
+          <t>BISTECA SUINA CARRE KG</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.99</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#06 AÇOUGUE - SUINO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>181416</v>
+        <v>105062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AMACINATE DE ROUPAS YPE 2L ACONCHEGO PROMOCIONAL</t>
+          <t>BISTECA SUINA DO PERNIL KG</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.99</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+          <t>#06 AÇOUGUE - SUINO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>325990</v>
+        <v>106054</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARROZ FLORA PCT 5KG TIPO 1 BRANCO </t>
+          <t>LOMBO SUINO FRESCO KG</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+          <t>#06 AÇOUGUE - SUINO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100028</v>
+        <v>106052</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ARROZ DOURA 5KG TIPO 1 BRANCO</t>
+          <t>PELE SUINA KG</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
+          <t>#06 AÇOUGUE - SUINO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>225003</v>
+        <v>106034</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARROZ RAMPINELLI PCT 5KG TIPO 1 BRANCO </t>
+          <t>SUAN SUINA KG</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+          <t>QUINTA - SUINO 10/04/25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#06 AÇOUGUE - SUINO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>289034</v>
+        <v>106032</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">AZEITONAS RIVOLI DOYPACK 200G VERDES </t>
+          <t>TOUCINHO FRESCO KG</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="12">
@@ -698,19 +698,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>261728</v>
+        <v>207427</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BISCOITO FORTALEZA 350G CREAM CRACKER</t>
+          <t>ABSORVENTE COTONBABY LADY  8UN SEM ABAS</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.99</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="13">
@@ -725,15 +725,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>286197</v>
+        <v>255232</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BISCOITO MABEL 600G ROSQUINHA COCO</t>
+          <t>ACHOCOLATADO EM PÓ TODDY 750G</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.99</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="14">
@@ -744,19 +744,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - DESTILADOS</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>102085</v>
+        <v>298239</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CACHACA 51 965ML</t>
+          <t>AÇUCAR ECOÇUCAR CRISTAL  2KG</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.19</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="15">
@@ -767,19 +767,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>114037</v>
+        <v>100431</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAFE SANTA CLARA 250G CLASSICO </t>
+          <t>AGUA SANITARIA QBOA 2L</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.69</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="16">
@@ -790,19 +790,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - CERVEJA</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>168712</v>
+        <v>112174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CERVEJA ANTARCTICA 15 X 269ML PILSEN</t>
+          <t>ALCOOL START 70º 1L</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="17">
@@ -813,19 +813,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - CERVEJA</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>239446</v>
+        <v>181416</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">CERVEJA AMSTEL 12 X 269ML LAGER </t>
+          <t>AMACINATE DE ROUPAS YPE 2L ACONCHEGO PROMOCIONAL</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.19</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="18">
@@ -836,19 +836,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - CERVEJA</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108423</v>
+        <v>325990</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CERVEJA HEINEKEN 6 X 330ML</t>
+          <t xml:space="preserve">ARROZ FLORA PCT 5KG TIPO 1 BRANCO </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="19">
@@ -859,19 +859,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - CERVEJA</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>242930</v>
+        <v>100028</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CERVEJA HEINEKEN 330ML</t>
+          <t>ARROZ DOURA 5KG TIPO 1 BRANCO</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.99</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="20">
@@ -882,19 +882,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - CERVEJA</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>324556</v>
+        <v>225003</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CERVEJA SKOL 15 X 269ML PILSEN</t>
+          <t xml:space="preserve">ARROZ RAMPINELLI PCT 5KG TIPO 1 BRANCO </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>44.89</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="21">
@@ -905,19 +905,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - FERMENTADOS</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>295198</v>
+        <v>289034</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHOPP DE VINHO STEMPEL 600ML RED </t>
+          <t xml:space="preserve">AZEITONAS RIVOLI DOYPACK 200G VERDES </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.99</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="22">
@@ -928,19 +928,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>107928</v>
+        <v>261728</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">CREME DENTAL COLGATE 180G MPA </t>
+          <t>BISCOITO FORTALEZA 350G CREAM CRACKER</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8.99</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="23">
@@ -955,15 +955,15 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>101066</v>
+        <v>286197</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CREME DE LEITE ITALAC 200G</t>
+          <t>BISCOITO MABEL 600G ROSQUINHA COCO</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.69</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="24">
@@ -974,19 +974,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - DESTILADOS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>112978</v>
+        <v>102085</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CUSCUZ DE MILHO SINHA 500G</t>
+          <t>CACHACA 51 965ML</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.69</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="25">
@@ -997,19 +997,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>134193</v>
+        <v>114037</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DESINFETANTE YPE BAK 2L FLORAL</t>
+          <t xml:space="preserve">CAFE SANTA CLARA 250G CLASSICO </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="26">
@@ -1020,19 +1020,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#05 BEBIDA - CERVEJA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>312367</v>
+        <v>168712</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">DESODORANTE MOOD AEROSOL 150ML FRUTAS VERMELHA </t>
+          <t>CERVEJA ANTARCTICA 15 X 269ML PILSEN</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9.49</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="27">
@@ -1043,19 +1043,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#05 BEBIDA - CERVEJA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>256724</v>
+        <v>239446</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+          <t xml:space="preserve">CERVEJA AMSTEL 12 X 269ML LAGER </t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.89</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="28">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#05 BEBIDA - CERVEJA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>207588</v>
+        <v>108423</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+          <t>CERVEJA HEINEKEN 6 X 330ML</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.89</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="29">
@@ -1089,19 +1089,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#05 BEBIDA - CERVEJA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>207586</v>
+        <v>242930</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+          <t>CERVEJA HEINEKEN 330ML</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.89</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="30">
@@ -1112,19 +1112,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#05 BEBIDA - CERVEJA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>207584</v>
+        <v>324556</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+          <t>CERVEJA SKOL 15 X 269ML PILSEN</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.89</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="31">
@@ -1135,19 +1135,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#05 BEBIDA - FERMENTADOS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>207582</v>
+        <v>295198</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
+          <t xml:space="preserve">CHOPP DE VINHO STEMPEL 600ML RED </t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.89</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="32">
@@ -1158,19 +1158,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>244424</v>
+        <v>107928</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L ENERGY DRINK MELANCIA </t>
+          <t xml:space="preserve">CREME DENTAL COLGATE 180G MPA </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.99</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="33">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>253877</v>
+        <v>101066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L ENERGY DRINK COCO E ACAI </t>
+          <t>CREME DE LEITE ITALAC 200G</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15.99</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="34">
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>253878</v>
+        <v>112978</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L  ENERGY DRINK </t>
+          <t>CUSCUZ DE MILHO SINHA 500G</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="35">
@@ -1227,19 +1227,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>253880</v>
+        <v>142863</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L  MAÇÃ VERDE </t>
+          <t>DESINFETANTE YPE BAK 2L LAVANDA</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="36">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>244426</v>
+        <v>148554</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L FRUTAS TROPICAIS </t>
+          <t>DESINFETANTE YPE BAK 2L EUCALIPTO</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="37">
@@ -1273,19 +1273,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>305261</v>
+        <v>134193</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ENERGETICO BALY  2L ABACAXI COM HORTELA</t>
+          <t>DESINFETANTE YPE BAK 2L FLORAL</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="38">
@@ -1296,19 +1296,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>320467</v>
+        <v>207588</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L CITRUS </t>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.99</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="39">
@@ -1319,19 +1319,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>302661</v>
+        <v>207586</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L MORANGO E PESSEGO </t>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>15.99</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="40">
@@ -1342,19 +1342,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>302660</v>
+        <v>207584</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGETICO BALY 2L TANGERINA </t>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.99</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="41">
@@ -1365,19 +1365,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>303008</v>
+        <v>256724</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ENERGETICO BALY 2L ENERGY CRANBERRY</t>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>15.99</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="42">
@@ -1388,19 +1388,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 ENERGETICO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>102287</v>
+        <v>207582</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ENERGETICO EXTRA POWER 270ML</t>
+          <t>DETERGENTE LIQUIDO LAVABEM 500ML</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.99</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="43">
@@ -1411,19 +1411,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>100780</v>
+        <v>244424</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EXTRATO DE TOMATE OLE COPO 190G</t>
+          <t xml:space="preserve">ENERGETICO BALY 2L ENERGY DRINK MELANCIA </t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.19</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="44">
@@ -1434,19 +1434,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>134629</v>
+        <v>253877</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">FARINHA DE TRIGO MIRELLA 1KG SEM FERMENTO </t>
+          <t xml:space="preserve">ENERGETICO BALY 2L ENERGY DRINK COCO E ACAI </t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="45">
@@ -1457,19 +1457,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>167686</v>
+        <v>253878</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FEIJAO KI SABOR 1KG CARIOCA</t>
+          <t xml:space="preserve">ENERGETICO BALY 2L  ENERGY DRINK </t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="46">
@@ -1480,19 +1480,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>100120</v>
+        <v>253880</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FLOCAO DE MILHO BONOMILHO 500G</t>
+          <t xml:space="preserve">ENERGETICO BALY 2L  MAÇÃ VERDE </t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.69</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="47">
@@ -1503,19 +1503,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>155080</v>
+        <v>244426</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LEITE CONDENSADO LEITBOM 395G</t>
+          <t xml:space="preserve">ENERGETICO BALY 2L FRUTAS TROPICAIS </t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="48">
@@ -1526,19 +1526,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>170363</v>
+        <v>305261</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LEITE LEITBOM 1L INTEGRAL</t>
+          <t>ENERGETICO BALY  2L ABACAXI COM HORTELA</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="49">
@@ -1549,19 +1549,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>106922</v>
+        <v>320467</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEITE EM PO CCGL 1KG INTEGRAL </t>
+          <t xml:space="preserve">ENERGETICO BALY 2L CITRUS </t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>45.29</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="50">
@@ -1572,19 +1572,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>303196</v>
+        <v>302661</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACARRAO GALO 400G ESPAGUETE AMARELO </t>
+          <t xml:space="preserve">ENERGETICO BALY 2L MORANGO E PESSEGO </t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.39</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="51">
@@ -1595,19 +1595,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>101726</v>
+        <v>302660</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MAIONESE ARISCO 500G TRADICIONAL</t>
+          <t xml:space="preserve">ENERGETICO BALY 2L TANGERINA </t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="52">
@@ -1618,19 +1618,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>107640</v>
+        <v>303008</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MILHO VERDE QUERO LATA 170G</t>
+          <t>ENERGETICO BALY 2L ENERGY CRANBERRY</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4.19</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="53">
@@ -1641,19 +1641,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 ENERGETICO</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>321107</v>
+        <v>102287</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOLHO QUERO PRONTO SACHÊ 240G TRADICIONAL </t>
+          <t>ENERGETICO EXTRA POWER 270ML</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2.39</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="54">
@@ -1664,19 +1664,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>106680</v>
+        <v>100780</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OLEO DE SOJA SOYA 900ML</t>
+          <t>EXTRATO DE TOMATE OLE COPO 190G</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.69</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="55">
@@ -1687,19 +1687,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>316048</v>
+        <v>134629</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PAPEL HIGIENICO LEBLON 12 X 30M PROMOCIONAL SOFT B</t>
+          <t xml:space="preserve">FARINHA DE TRIGO MIRELLA 1KG SEM FERMENTO </t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>20.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="56">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>128920</v>
+        <v>167686</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLVILHO MATUTO 1KG DOCE </t>
+          <t>FEIJAO KI SABOR 1KG CARIOCA</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8.69</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="57">
@@ -1733,19 +1733,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>104410</v>
+        <v>100120</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>REFRIGERANTE GUARANA ANTARCTICA 2L</t>
+          <t>FLOCAO DE MILHO BONOMILHO 500G</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="58">
@@ -1756,15 +1756,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>104405</v>
+        <v>155080</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">REFRIGERANTE SUKITA 2L LARANJA </t>
+          <t>LEITE CONDENSADO LEITBOM 395G</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1779,19 +1779,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>104406</v>
+        <v>170363</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>REFRIGERANTE COCA COLA 2L</t>
+          <t>LEITE LEITBOM 1L INTEGRAL</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11.19</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="60">
@@ -1802,19 +1802,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#03 LIMPEZA</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>286231</v>
+        <v>106922</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SABAO EM PO BRILHANTE CAIXA 1,6KG PROMOCIONAL</t>
+          <t xml:space="preserve">LEITE EM PO CCGL 1KG INTEGRAL </t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>18.99</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="61">
@@ -1825,19 +1825,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>286298</v>
+        <v>303196</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G AGUA DE COCO</t>
+          <t xml:space="preserve">MACARRAO GALO 400G ESPAGUETE AMARELO </t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.69</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="62">
@@ -1848,19 +1848,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>286494</v>
+        <v>101726</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G BRASILIDADES AMORA</t>
+          <t>MAIONESE ARISCO 500G TRADICIONAL</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.69</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="63">
@@ -1871,19 +1871,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>286977</v>
+        <v>107640</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G BRASILIDADE ACEROLA</t>
+          <t>MILHO VERDE QUERO LATA 170G</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2.69</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="64">
@@ -1894,19 +1894,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>291713</v>
+        <v>321107</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G BRASILIDADES CARAMBOLA</t>
+          <t xml:space="preserve">MOLHO QUERO PRONTO SACHÊ 240G TRADICIONAL </t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2.69</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="65">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>291711</v>
+        <v>106680</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G BRASILIDADES GRAVIOLA</t>
+          <t>OLEO DE SOJA SOYA 900ML</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.69</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="66">
@@ -1944,15 +1944,15 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>291712</v>
+        <v>316048</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G BRASILIDADES LIMA</t>
+          <t>PAPEL HIGIENICO LEBLON 12 X 30M PROMOCIONAL SOFT B</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.69</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="67">
@@ -1963,19 +1963,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>286296</v>
+        <v>128920</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G BRASILIDADE CAPIM LIMAO</t>
+          <t xml:space="preserve">POLVILHO MATUTO 1KG DOCE </t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2.69</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="68">
@@ -1986,19 +1986,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#04 HIGIENE PESSOAL</t>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>286297</v>
+        <v>104410</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SABONETE FRANCIS 80G BRASILIDADE MANGA ROSA</t>
+          <t>REFRIGERANTE GUARANA ANTARCTICA 2L</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.69</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="69">
@@ -2009,19 +2009,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>100705</v>
+        <v>104405</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G TOMATE </t>
+          <t xml:space="preserve">REFRIGERANTE SUKITA 2L LARANJA </t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="70">
@@ -2032,19 +2032,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#05 BEBIDA - #00 REFRIGERANTES</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>100693</v>
+        <v>104406</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G OLEO </t>
+          <t>REFRIGERANTE COCA COLA 2L</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5.49</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="71">
@@ -2059,15 +2059,15 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>100373</v>
+        <v>286231</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SODA CAUSTICA SOL 1KG</t>
+          <t>SABAO EM PO BRILHANTE CAIXA 1,6KG PROMOCIONAL</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.99</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="72">
@@ -2078,19 +2078,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>100876</v>
+        <v>286298</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">TEMPERO ARISCO COMPLETO 1KG PIMENTA </t>
+          <t>SABONETE FRANCIS 80G AGUA DE COCO</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>13.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="73">
@@ -2101,249 +2101,272 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#02 MERCEARIA</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>106961</v>
+        <v>286494</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">VINAGRE CASTELO 750ML ALCOOL </t>
+          <t>SABONETE FRANCIS 80G BRASILIDADES AMORA</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>105470</v>
+        <v>286977</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ACEM BOVINO KG</t>
+          <t>SABONETE FRANCIS 80G BRASILIDADE ACEROLA</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>105471</v>
+        <v>291713</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>COSTELA BOVINA KG</t>
+          <t>SABONETE FRANCIS 80G BRASILIDADES CARAMBOLA</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>18.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>107260</v>
+        <v>291711</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MAÇÃ DO PEITO KG</t>
+          <t>SABONETE FRANCIS 80G BRASILIDADES GRAVIOLA</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - BOVINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>105469</v>
+        <v>291712</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PALETA BOVINA KG</t>
+          <t>SABONETE FRANCIS 80G BRASILIDADES LIMA</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>106053</v>
+        <v>286296</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BISTECA SUINA CARRE KG</t>
+          <t>SABONETE FRANCIS 80G BRASILIDADE CAPIM LIMAO</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>18.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#04 HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>105062</v>
+        <v>286297</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>BISTECA SUINA DO PERNIL KG</t>
+          <t>SABONETE FRANCIS 80G BRASILIDADE MANGA ROSA</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>18.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>106054</v>
+        <v>100705</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LOMBO SUINO FRESCO KG</t>
+          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G TOMATE </t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>19.99</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>106052</v>
+        <v>100693</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PELE SUINA KG</t>
+          <t xml:space="preserve">SARDINHA GOMES DA COSTA 125G OLEO </t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>12.99</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#03 LIMPEZA</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>106034</v>
+        <v>100373</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SUAN SUINA KG</t>
+          <t>SODA CAUSTICA SOL 1KG</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.99</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>QUINTA - SUINO 10/04/25</t>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>#06 AÇOUGUE - SUINO</t>
+          <t>#02 MERCEARIA</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>106032</v>
+        <v>100876</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TOUCINHO FRESCO KG</t>
+          <t xml:space="preserve">TEMPERO ARISCO COMPLETO 1KG PIMENTA </t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.99</v>
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>QUINTA FEIRA- OFERTAS ARRASADORAS 10 A 13/04</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>#02 MERCEARIA</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>106961</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VINAGRE CASTELO 750ML ALCOOL </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3.99</v>
       </c>
     </row>
   </sheetData>
